--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_33.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_33.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_33_0</t>
+          <t>model_1_33_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.993569155381309</v>
+        <v>0.9162326547335191</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7189796074623547</v>
+        <v>0.7083417936261991</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7075907155052983</v>
+        <v>0.6954317399404031</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9902200687257494</v>
+        <v>0.914824123557779</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02698887916206674</v>
+        <v>0.3515536283606186</v>
       </c>
       <c r="G2" t="n">
-        <v>1.87918465887916</v>
+        <v>1.950319768984161</v>
       </c>
       <c r="H2" t="n">
-        <v>1.045931055773068</v>
+        <v>1.089423006350786</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05135157000180145</v>
+        <v>0.6163071154686346</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2965131423529179</v>
+        <v>1.813760025360437</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1642829241341496</v>
+        <v>0.592919580011167</v>
       </c>
       <c r="L2" t="n">
-        <v>1.003764396849965</v>
+        <v>0.7127976733720656</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1712767883270753</v>
+        <v>0.6181613940449767</v>
       </c>
       <c r="N2" t="n">
-        <v>137.2246607614226</v>
+        <v>36.09078601870611</v>
       </c>
       <c r="O2" t="n">
-        <v>216.4515893778556</v>
+        <v>56.81167504146552</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_33_1</t>
+          <t>model_1_33_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9935396211156575</v>
+        <v>0.9164919580981147</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7187195781597544</v>
+        <v>0.7083414885179904</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7076254718000723</v>
+        <v>0.6955219864811393</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9897836714858704</v>
+        <v>0.9160696028319095</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02711282815696102</v>
+        <v>0.3504653876102438</v>
       </c>
       <c r="G3" t="n">
-        <v>1.880923476022973</v>
+        <v>1.950321809244158</v>
       </c>
       <c r="H3" t="n">
-        <v>1.045806734521947</v>
+        <v>1.089100199707368</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05364296477583654</v>
+        <v>0.6072952007003017</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2933684092675416</v>
+        <v>1.814162517348108</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1646597344737353</v>
+        <v>0.5920011719669512</v>
       </c>
       <c r="L3" t="n">
-        <v>1.003781685200591</v>
+        <v>0.7136867134792504</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1716696402629222</v>
+        <v>0.6172038874689519</v>
       </c>
       <c r="N3" t="n">
-        <v>137.2154965987445</v>
+        <v>36.09698665770475</v>
       </c>
       <c r="O3" t="n">
-        <v>216.4424252151775</v>
+        <v>56.81787568046416</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_33_2</t>
+          <t>model_1_33_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9935066934628146</v>
+        <v>0.9217374449561201</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7184610640292488</v>
+        <v>0.6913441955346409</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7076561101718306</v>
+        <v>0.6777879739339694</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9893400447705232</v>
+        <v>0.9666948052144301</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0272510184719758</v>
+        <v>0.328451201395038</v>
       </c>
       <c r="G4" t="n">
-        <v>1.882652161204012</v>
+        <v>2.063982785689154</v>
       </c>
       <c r="H4" t="n">
-        <v>1.045697142842682</v>
+        <v>1.152533734311466</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05597231941944288</v>
+        <v>0.24098640819199</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2902970781994012</v>
+        <v>1.921602927731485</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1650788250260335</v>
+        <v>0.5731066230598264</v>
       </c>
       <c r="L4" t="n">
-        <v>1.003800959924206</v>
+        <v>0.7316712398495546</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1721065723676688</v>
+        <v>0.5975049584977427</v>
       </c>
       <c r="N4" t="n">
-        <v>137.2053287669059</v>
+        <v>36.22673400375776</v>
       </c>
       <c r="O4" t="n">
-        <v>216.4322573833389</v>
+        <v>56.94762302651716</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_33_3</t>
+          <t>model_1_33_5</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9934705234150925</v>
+        <v>0.921574371927371</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7182041621910034</v>
+        <v>0.6911628253586277</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7076820989035639</v>
+        <v>0.6753125532015698</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9888896528908793</v>
+        <v>0.9692668154181991</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02740281642467728</v>
+        <v>0.3291355840117026</v>
       </c>
       <c r="G5" t="n">
-        <v>1.884370064979283</v>
+        <v>2.065195608891287</v>
       </c>
       <c r="H5" t="n">
-        <v>1.045604182656185</v>
+        <v>1.161388170738119</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05833719596992217</v>
+        <v>0.2223761131665423</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2872935046286623</v>
+        <v>1.939551654539359</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1655379606757232</v>
+        <v>0.5737033937599659</v>
       </c>
       <c r="L5" t="n">
-        <v>1.003822132635068</v>
+        <v>0.731112132322415</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1725852543725075</v>
+        <v>0.5981271349620727</v>
       </c>
       <c r="N5" t="n">
-        <v>137.1942189632975</v>
+        <v>36.22257100730496</v>
       </c>
       <c r="O5" t="n">
-        <v>216.4211475797306</v>
+        <v>56.94346003006437</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_33_4</t>
+          <t>model_1_33_6</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9934312629613058</v>
+        <v>0.9216632435270415</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7179489136650368</v>
+        <v>0.6911556022736103</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7077040110309887</v>
+        <v>0.6765698986047483</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9884332125595244</v>
+        <v>0.9679832992593945</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02756758415052437</v>
+        <v>0.3287626089195231</v>
       </c>
       <c r="G6" t="n">
-        <v>1.886076913047734</v>
+        <v>2.065243909694058</v>
       </c>
       <c r="H6" t="n">
-        <v>1.045525804246925</v>
+        <v>1.156890719136025</v>
       </c>
       <c r="I6" t="n">
-        <v>0.06073383117828261</v>
+        <v>0.231663251433055</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2843605651084311</v>
+        <v>1.930548485660618</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1660348883533951</v>
+        <v>0.5733782424538998</v>
       </c>
       <c r="L6" t="n">
-        <v>1.003845114364114</v>
+        <v>0.7314168349498567</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1731033372902</v>
+        <v>0.5977881412917514</v>
       </c>
       <c r="N6" t="n">
-        <v>137.1822293676192</v>
+        <v>36.22483868419567</v>
       </c>
       <c r="O6" t="n">
-        <v>216.4091579840522</v>
+        <v>56.94572770695508</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_33_5</t>
+          <t>model_1_33_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9933890768264392</v>
+        <v>0.9214700861376949</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7176951795615789</v>
+        <v>0.6907522174605991</v>
       </c>
       <c r="D7" t="n">
-        <v>0.707721987888926</v>
+        <v>0.674016600383599</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9879708667178757</v>
+        <v>0.9705428046731726</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02774463033399472</v>
+        <v>0.3295732491618926</v>
       </c>
       <c r="G7" t="n">
-        <v>1.887773634165895</v>
+        <v>2.067941345796079</v>
       </c>
       <c r="H7" t="n">
-        <v>1.045461502068441</v>
+        <v>1.166023718824338</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06316147450078488</v>
+        <v>0.2131434373204054</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2814929668303401</v>
+        <v>1.948606787104064</v>
       </c>
       <c r="K7" t="n">
-        <v>0.166567194651272</v>
+        <v>0.574084705563467</v>
       </c>
       <c r="L7" t="n">
-        <v>1.003869808686962</v>
+        <v>0.7307545810435253</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1736583049692034</v>
+        <v>0.598524679998473</v>
       </c>
       <c r="N7" t="n">
-        <v>137.1694259179824</v>
+        <v>36.21991329152796</v>
       </c>
       <c r="O7" t="n">
-        <v>216.3963545344154</v>
+        <v>56.94080231428737</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_33_6</t>
+          <t>model_1_33_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9933441181981516</v>
+        <v>0.9206914180502251</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7174431101515422</v>
+        <v>0.6879369526773034</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7077362182280655</v>
+        <v>0.6669973993423111</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9875034368269551</v>
+        <v>0.9767030325459981</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02793331207925383</v>
+        <v>0.3328411525503522</v>
       </c>
       <c r="G8" t="n">
-        <v>1.889459223471483</v>
+        <v>2.086767034365081</v>
       </c>
       <c r="H8" t="n">
-        <v>1.045410600970461</v>
+        <v>1.191130993952364</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06561581268491333</v>
+        <v>0.1685698745992052</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2786866799001991</v>
+        <v>1.994294568206634</v>
       </c>
       <c r="K8" t="n">
-        <v>0.167132618238493</v>
+        <v>0.5769238706712977</v>
       </c>
       <c r="L8" t="n">
-        <v>1.003896125932789</v>
+        <v>0.7280848618864861</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1742477998091206</v>
+        <v>0.6014847142428261</v>
       </c>
       <c r="N8" t="n">
-        <v>137.1558706420968</v>
+        <v>36.20017984435987</v>
       </c>
       <c r="O8" t="n">
-        <v>216.3827992585298</v>
+        <v>56.92106886711928</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_33_7</t>
+          <t>model_1_33_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9932964834322738</v>
+        <v>0.9202452877642389</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7171926118456184</v>
+        <v>0.6864486245878001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7077464130142551</v>
+        <v>0.6639583772786825</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9870311603390601</v>
+        <v>0.9790036569975988</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02813322500149315</v>
+        <v>0.3347134659233154</v>
       </c>
       <c r="G9" t="n">
-        <v>1.891134306796634</v>
+        <v>2.096719491152709</v>
       </c>
       <c r="H9" t="n">
-        <v>1.045374134811389</v>
+        <v>1.20200139966134</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06809559893782867</v>
+        <v>0.1519232455445046</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2759471083581321</v>
+        <v>2.012590519823076</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1677296187365045</v>
+        <v>0.5785442644459586</v>
       </c>
       <c r="L9" t="n">
-        <v>1.003924009698181</v>
+        <v>0.7265552723345332</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1748702158542939</v>
+        <v>0.6031740915351519</v>
       </c>
       <c r="N9" t="n">
-        <v>137.1416080334272</v>
+        <v>36.18896087751754</v>
       </c>
       <c r="O9" t="n">
-        <v>216.3685366498602</v>
+        <v>56.90984990027695</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_33_8</t>
+          <t>model_1_33_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9932463370461561</v>
+        <v>0.919990433821279</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7169437771392324</v>
+        <v>0.6856963781874909</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7077535363151112</v>
+        <v>0.6623938807097041</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9865543750487975</v>
+        <v>0.9801063339310578</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02834367865658729</v>
+        <v>0.3357830334029165</v>
       </c>
       <c r="G10" t="n">
-        <v>1.892798265624015</v>
+        <v>2.101749766295353</v>
       </c>
       <c r="H10" t="n">
-        <v>1.04534865517726</v>
+        <v>1.207597513173853</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07059905959845877</v>
+        <v>0.1439446057166547</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2732687163146448</v>
+        <v>2.021709952938184</v>
       </c>
       <c r="K10" t="n">
-        <v>0.168355809690629</v>
+        <v>0.5794678881550871</v>
       </c>
       <c r="L10" t="n">
-        <v>1.003953363680299</v>
+        <v>0.7256814873872423</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1755230650537295</v>
+        <v>0.6041370358177426</v>
       </c>
       <c r="N10" t="n">
-        <v>137.1267024974946</v>
+        <v>36.18258012302953</v>
       </c>
       <c r="O10" t="n">
-        <v>216.3536311139276</v>
+        <v>56.90346914578894</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_33_9</t>
+          <t>model_1_33_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9931938240549874</v>
+        <v>0.9197137388314841</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7166965981156252</v>
+        <v>0.6848396326692222</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7077569002298251</v>
+        <v>0.6608007302417069</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9860737662593279</v>
+        <v>0.9811736988967528</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02856406444681025</v>
+        <v>0.3369442630837923</v>
       </c>
       <c r="G11" t="n">
-        <v>1.894451152893031</v>
+        <v>2.107478827520966</v>
       </c>
       <c r="H11" t="n">
-        <v>1.045336622649379</v>
+        <v>1.213296120021707</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07312259633955125</v>
+        <v>0.1362214727048569</v>
       </c>
       <c r="J11" t="n">
-        <v>0.270646983162586</v>
+        <v>2.030805919859298</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1690090661674996</v>
+        <v>0.5804690026898872</v>
       </c>
       <c r="L11" t="n">
-        <v>1.003984102992203</v>
+        <v>0.7247328188508027</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1762041320112478</v>
+        <v>0.6051807698708819</v>
       </c>
       <c r="N11" t="n">
-        <v>137.1112116781457</v>
+        <v>36.1756755075024</v>
       </c>
       <c r="O11" t="n">
-        <v>216.3381402945787</v>
+        <v>56.89656453026181</v>
       </c>
     </row>
   </sheetData>
